--- a/database/industries/ghand/ghesafha/product/yearly.xlsx
+++ b/database/industries/ghand/ghesafha/product/yearly.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="e:\Trade\database\industries\ghand\ghesafha\product\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="c:\Users\EBRAHIMI\Desktop\Trade\database\industries\ghand\ghesafha\product\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2CCA828-24D8-45A2-B0FB-5700AC39E445}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20430" windowHeight="7680"/>
+    <workbookView xWindow="3120" yWindow="3120" windowWidth="21600" windowHeight="11025" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId1"/>
@@ -24,7 +25,7 @@
     <t>Pouya Finance</t>
   </si>
   <si>
-    <t>Copyright @2015 - 2022</t>
+    <t>Copyright @2015 - 2023</t>
   </si>
   <si>
     <t>قصفها-قنداصفهان‌</t>
@@ -159,7 +160,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -323,7 +324,7 @@
         <a:srgbClr val="E7E6E6"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="4472C4"/>
       </a:accent1>
       <a:accent2>
         <a:srgbClr val="ED7D31"/>
@@ -335,7 +336,7 @@
         <a:srgbClr val="FFC000"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="5B9BD5"/>
       </a:accent5>
       <a:accent6>
         <a:srgbClr val="70AD47"/>
@@ -382,6 +383,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -417,6 +435,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -568,7 +603,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:I151"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>

--- a/database/industries/ghand/ghesafha/product/yearly.xlsx
+++ b/database/industries/ghand/ghesafha/product/yearly.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="c:\Users\EBRAHIMI\Desktop\Trade\database\industries\ghand\ghesafha\product\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\EBRAHIMI\Desktop\Trade\database\industries\ghand\ghesafha\product\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2CCA828-24D8-45A2-B0FB-5700AC39E445}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9040B419-9CC3-4DB9-BD99-AA7632B28C12}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3120" yWindow="3120" windowWidth="21600" windowHeight="11025" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1152" yWindow="1152" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="572" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="548" uniqueCount="45">
   <si>
     <t>Pouya Finance</t>
   </si>
@@ -37,9 +37,6 @@
     <t>مقدار تولید</t>
   </si>
   <si>
-    <t>دوازده ماهه منتهی به 1396/12</t>
-  </si>
-  <si>
     <t>دوازده ماهه منتهی به 1397/12</t>
   </si>
   <si>
@@ -50,6 +47,9 @@
   </si>
   <si>
     <t>دوازده ماهه منتهی به 1400/12</t>
+  </si>
+  <si>
+    <t>دوازده ماهه منتهی به 1401/12</t>
   </si>
   <si>
     <t>تفاله خشک</t>
@@ -608,12 +608,12 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="9" width="20" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
@@ -623,7 +623,7 @@
       <c r="H1" s="1"/>
       <c r="I1" s="1"/>
     </row>
-    <row r="2" spans="2:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
@@ -635,7 +635,7 @@
       <c r="H2" s="1"/>
       <c r="I2" s="1"/>
     </row>
-    <row r="3" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B3" s="3" t="s">
         <v>1</v>
       </c>
@@ -647,7 +647,7 @@
       <c r="H3" s="1"/>
       <c r="I3" s="1"/>
     </row>
-    <row r="4" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -657,7 +657,7 @@
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
     </row>
-    <row r="5" spans="2:9" ht="42" x14ac:dyDescent="0.65">
+    <row r="5" spans="2:9" ht="40.799999999999997" x14ac:dyDescent="0.75">
       <c r="B5" s="4" t="s">
         <v>2</v>
       </c>
@@ -669,7 +669,7 @@
       <c r="H5" s="4"/>
       <c r="I5" s="4"/>
     </row>
-    <row r="6" spans="2:9" ht="42" x14ac:dyDescent="0.65">
+    <row r="6" spans="2:9" ht="40.799999999999997" x14ac:dyDescent="0.75">
       <c r="B6" s="5" t="s">
         <v>3</v>
       </c>
@@ -681,7 +681,7 @@
       <c r="H6" s="4"/>
       <c r="I6" s="4"/>
     </row>
-    <row r="7" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
@@ -691,7 +691,7 @@
       <c r="H7" s="1"/>
       <c r="I7" s="1"/>
     </row>
-    <row r="8" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B8" s="7" t="s">
         <v>4</v>
       </c>
@@ -713,7 +713,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
@@ -723,7 +723,7 @@
       <c r="H9" s="1"/>
       <c r="I9" s="1"/>
     </row>
-    <row r="10" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B10" s="8" t="s">
         <v>10</v>
       </c>
@@ -732,22 +732,22 @@
       </c>
       <c r="D10" s="9"/>
       <c r="E10" s="9">
-        <v>41785</v>
+        <v>43335</v>
       </c>
       <c r="F10" s="9">
-        <v>43335</v>
+        <v>21767</v>
       </c>
       <c r="G10" s="9">
-        <v>21767</v>
+        <v>30208</v>
       </c>
       <c r="H10" s="9">
-        <v>30208</v>
+        <v>24487</v>
       </c>
       <c r="I10" s="9">
-        <v>24487</v>
-      </c>
-    </row>
-    <row r="11" spans="2:9" x14ac:dyDescent="0.25">
+        <v>34442</v>
+      </c>
+    </row>
+    <row r="11" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B11" s="10" t="s">
         <v>12</v>
       </c>
@@ -756,22 +756,22 @@
       </c>
       <c r="D11" s="11"/>
       <c r="E11" s="11">
-        <v>16566</v>
+        <v>10836</v>
       </c>
       <c r="F11" s="11">
-        <v>10836</v>
+        <v>10139</v>
       </c>
       <c r="G11" s="11">
-        <v>10139</v>
+        <v>12763</v>
       </c>
       <c r="H11" s="11">
-        <v>12763</v>
+        <v>17387</v>
       </c>
       <c r="I11" s="11">
-        <v>17387</v>
-      </c>
-    </row>
-    <row r="12" spans="2:9" x14ac:dyDescent="0.25">
+        <v>19970</v>
+      </c>
+    </row>
+    <row r="12" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B12" s="8" t="s">
         <v>13</v>
       </c>
@@ -780,13 +780,13 @@
       </c>
       <c r="D12" s="9"/>
       <c r="E12" s="9">
-        <v>46964</v>
+        <v>0</v>
       </c>
       <c r="F12" s="9">
-        <v>0</v>
+        <v>29427</v>
       </c>
       <c r="G12" s="9">
-        <v>29427</v>
+        <v>0</v>
       </c>
       <c r="H12" s="9">
         <v>0</v>
@@ -795,7 +795,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B13" s="10" t="s">
         <v>14</v>
       </c>
@@ -804,22 +804,22 @@
       </c>
       <c r="D13" s="11"/>
       <c r="E13" s="11">
-        <v>29032</v>
+        <v>33379</v>
       </c>
       <c r="F13" s="11">
-        <v>33379</v>
+        <v>83465</v>
       </c>
       <c r="G13" s="11">
-        <v>83465</v>
+        <v>73923</v>
       </c>
       <c r="H13" s="11">
-        <v>73923</v>
+        <v>83714</v>
       </c>
       <c r="I13" s="11">
-        <v>83714</v>
-      </c>
-    </row>
-    <row r="14" spans="2:9" x14ac:dyDescent="0.25">
+        <v>78764</v>
+      </c>
+    </row>
+    <row r="14" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B14" s="8" t="s">
         <v>15</v>
       </c>
@@ -828,22 +828,22 @@
       </c>
       <c r="D14" s="9"/>
       <c r="E14" s="9">
-        <v>77841</v>
+        <v>71275</v>
       </c>
       <c r="F14" s="9">
-        <v>71275</v>
+        <v>38498</v>
       </c>
       <c r="G14" s="9">
-        <v>38498</v>
+        <v>60754</v>
       </c>
       <c r="H14" s="9">
-        <v>60754</v>
+        <v>65262</v>
       </c>
       <c r="I14" s="9">
-        <v>65262</v>
-      </c>
-    </row>
-    <row r="15" spans="2:9" x14ac:dyDescent="0.25">
+        <v>60901</v>
+      </c>
+    </row>
+    <row r="15" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B15" s="10" t="s">
         <v>16</v>
       </c>
@@ -854,11 +854,11 @@
       <c r="E15" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="F15" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="G15" s="11">
-        <v>0</v>
+      <c r="F15" s="11">
+        <v>0</v>
+      </c>
+      <c r="G15" s="11" t="s">
+        <v>17</v>
       </c>
       <c r="H15" s="11" t="s">
         <v>17</v>
@@ -867,7 +867,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="16" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B16" s="8" t="s">
         <v>18</v>
       </c>
@@ -875,23 +875,23 @@
         <v>11</v>
       </c>
       <c r="D16" s="9"/>
-      <c r="E16" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="F16" s="9">
-        <v>0</v>
-      </c>
-      <c r="G16" s="9" t="s">
-        <v>17</v>
+      <c r="E16" s="9">
+        <v>0</v>
+      </c>
+      <c r="F16" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="G16" s="9">
+        <v>0</v>
       </c>
       <c r="H16" s="9">
         <v>0</v>
       </c>
       <c r="I16" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="2:9" x14ac:dyDescent="0.25">
+        <v>769</v>
+      </c>
+    </row>
+    <row r="17" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B17" s="10" t="s">
         <v>19</v>
       </c>
@@ -908,14 +908,14 @@
       <c r="G17" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="H17" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="I17" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="H17" s="11">
+        <v>0</v>
+      </c>
+      <c r="I17" s="11" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="18" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B18" s="8" t="s">
         <v>20</v>
       </c>
@@ -932,14 +932,14 @@
       <c r="G18" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="H18" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="I18" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="H18" s="9">
+        <v>0</v>
+      </c>
+      <c r="I18" s="9" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="19" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B19" s="10" t="s">
         <v>21</v>
       </c>
@@ -954,14 +954,14 @@
       <c r="G19" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="H19" s="11" t="s">
-        <v>17</v>
+      <c r="H19" s="11">
+        <v>0</v>
       </c>
       <c r="I19" s="11">
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B20" s="8" t="s">
         <v>22</v>
       </c>
@@ -985,7 +985,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="21" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B21" s="10" t="s">
         <v>23</v>
       </c>
@@ -1009,7 +1009,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="22" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B22" s="8" t="s">
         <v>24</v>
       </c>
@@ -1033,7 +1033,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="23" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B23" s="10" t="s">
         <v>25</v>
       </c>
@@ -1050,14 +1050,14 @@
       <c r="G23" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="H23" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="I23" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="H23" s="11">
+        <v>0</v>
+      </c>
+      <c r="I23" s="11" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="24" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B24" s="8" t="s">
         <v>26</v>
       </c>
@@ -1066,13 +1066,13 @@
       </c>
       <c r="D24" s="9"/>
       <c r="E24" s="9">
-        <v>7199</v>
+        <v>0</v>
       </c>
       <c r="F24" s="9">
         <v>0</v>
       </c>
-      <c r="G24" s="9">
-        <v>0</v>
+      <c r="G24" s="9" t="s">
+        <v>17</v>
       </c>
       <c r="H24" s="9" t="s">
         <v>17</v>
@@ -1081,7 +1081,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="25" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B25" s="10" t="s">
         <v>27</v>
       </c>
@@ -1098,14 +1098,14 @@
       <c r="G25" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="H25" s="11" t="s">
-        <v>17</v>
+      <c r="H25" s="11">
+        <v>10723</v>
       </c>
       <c r="I25" s="11">
-        <v>10723</v>
-      </c>
-    </row>
-    <row r="26" spans="2:9" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B26" s="8" t="s">
         <v>28</v>
       </c>
@@ -1116,11 +1116,11 @@
       <c r="E26" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="F26" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="G26" s="9">
-        <v>0</v>
+      <c r="F26" s="9">
+        <v>0</v>
+      </c>
+      <c r="G26" s="9" t="s">
+        <v>17</v>
       </c>
       <c r="H26" s="9" t="s">
         <v>17</v>
@@ -1129,7 +1129,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="27" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B27" s="10" t="s">
         <v>29</v>
       </c>
@@ -1146,36 +1146,36 @@
       <c r="G27" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="H27" s="11" t="s">
-        <v>17</v>
+      <c r="H27" s="11">
+        <v>1075</v>
       </c>
       <c r="I27" s="11">
-        <v>1075</v>
-      </c>
-    </row>
-    <row r="28" spans="2:9" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B28" s="12" t="s">
         <v>30</v>
       </c>
       <c r="C28" s="13"/>
       <c r="D28" s="13"/>
       <c r="E28" s="13">
-        <v>219387</v>
+        <v>158825</v>
       </c>
       <c r="F28" s="13">
-        <v>158825</v>
+        <v>183296</v>
       </c>
       <c r="G28" s="13">
-        <v>183296</v>
+        <v>177648</v>
       </c>
       <c r="H28" s="13">
-        <v>177648</v>
+        <v>202648</v>
       </c>
       <c r="I28" s="13">
-        <v>202648</v>
-      </c>
-    </row>
-    <row r="29" spans="2:9" x14ac:dyDescent="0.25">
+        <v>194846</v>
+      </c>
+    </row>
+    <row r="29" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B29" s="1"/>
       <c r="C29" s="1"/>
       <c r="D29" s="1"/>
@@ -1185,7 +1185,7 @@
       <c r="H29" s="1"/>
       <c r="I29" s="1"/>
     </row>
-    <row r="30" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B30" s="1"/>
       <c r="C30" s="1"/>
       <c r="D30" s="1"/>
@@ -1195,7 +1195,7 @@
       <c r="H30" s="1"/>
       <c r="I30" s="1"/>
     </row>
-    <row r="31" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B31" s="1"/>
       <c r="C31" s="1"/>
       <c r="D31" s="1"/>
@@ -1205,7 +1205,7 @@
       <c r="H31" s="1"/>
       <c r="I31" s="1"/>
     </row>
-    <row r="32" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B32" s="7" t="s">
         <v>31</v>
       </c>
@@ -1227,7 +1227,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="33" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B33" s="1"/>
       <c r="C33" s="1"/>
       <c r="D33" s="1"/>
@@ -1237,7 +1237,7 @@
       <c r="H33" s="1"/>
       <c r="I33" s="1"/>
     </row>
-    <row r="34" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B34" s="8" t="s">
         <v>10</v>
       </c>
@@ -1246,22 +1246,22 @@
       </c>
       <c r="D34" s="9"/>
       <c r="E34" s="9">
-        <v>39343</v>
+        <v>44037</v>
       </c>
       <c r="F34" s="9">
-        <v>44037</v>
+        <v>25515</v>
       </c>
       <c r="G34" s="9">
-        <v>25515</v>
+        <v>29991</v>
       </c>
       <c r="H34" s="9">
-        <v>29991</v>
+        <v>24246</v>
       </c>
       <c r="I34" s="9">
-        <v>24246</v>
-      </c>
-    </row>
-    <row r="35" spans="2:9" x14ac:dyDescent="0.25">
+        <v>24317</v>
+      </c>
+    </row>
+    <row r="35" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B35" s="10" t="s">
         <v>12</v>
       </c>
@@ -1270,22 +1270,22 @@
       </c>
       <c r="D35" s="11"/>
       <c r="E35" s="11">
-        <v>17011</v>
+        <v>10792</v>
       </c>
       <c r="F35" s="11">
-        <v>10792</v>
+        <v>10690</v>
       </c>
       <c r="G35" s="11">
-        <v>10690</v>
+        <v>12931</v>
       </c>
       <c r="H35" s="11">
-        <v>12931</v>
+        <v>17074</v>
       </c>
       <c r="I35" s="11">
-        <v>17074</v>
-      </c>
-    </row>
-    <row r="36" spans="2:9" x14ac:dyDescent="0.25">
+        <v>19141</v>
+      </c>
+    </row>
+    <row r="36" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B36" s="8" t="s">
         <v>13</v>
       </c>
@@ -1294,22 +1294,22 @@
       </c>
       <c r="D36" s="9"/>
       <c r="E36" s="9">
-        <v>47734</v>
+        <v>3365</v>
       </c>
       <c r="F36" s="9">
-        <v>3365</v>
+        <v>24529</v>
       </c>
       <c r="G36" s="9">
-        <v>24529</v>
+        <v>4900</v>
       </c>
       <c r="H36" s="9">
-        <v>4900</v>
+        <v>27</v>
       </c>
       <c r="I36" s="9">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="37" spans="2:9" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B37" s="10" t="s">
         <v>14</v>
       </c>
@@ -1318,7 +1318,7 @@
       </c>
       <c r="D37" s="11"/>
       <c r="E37" s="11">
-        <v>29032</v>
+        <v>0</v>
       </c>
       <c r="F37" s="11">
         <v>0</v>
@@ -1327,13 +1327,13 @@
         <v>0</v>
       </c>
       <c r="H37" s="11">
-        <v>0</v>
+        <v>83714</v>
       </c>
       <c r="I37" s="11">
-        <v>83714</v>
-      </c>
-    </row>
-    <row r="38" spans="2:9" x14ac:dyDescent="0.25">
+        <v>78764</v>
+      </c>
+    </row>
+    <row r="38" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B38" s="8" t="s">
         <v>15</v>
       </c>
@@ -1342,22 +1342,22 @@
       </c>
       <c r="D38" s="9"/>
       <c r="E38" s="9">
-        <v>68451</v>
+        <v>71791</v>
       </c>
       <c r="F38" s="9">
-        <v>71791</v>
+        <v>60161</v>
       </c>
       <c r="G38" s="9">
-        <v>60161</v>
+        <v>58047</v>
       </c>
       <c r="H38" s="9">
-        <v>58047</v>
+        <v>68685</v>
       </c>
       <c r="I38" s="9">
-        <v>68685</v>
-      </c>
-    </row>
-    <row r="39" spans="2:9" x14ac:dyDescent="0.25">
+        <v>60653</v>
+      </c>
+    </row>
+    <row r="39" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B39" s="10" t="s">
         <v>32</v>
       </c>
@@ -1381,7 +1381,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="40" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B40" s="8" t="s">
         <v>16</v>
       </c>
@@ -1405,7 +1405,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="41" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B41" s="10" t="s">
         <v>18</v>
       </c>
@@ -1423,13 +1423,13 @@
         <v>1</v>
       </c>
       <c r="H41" s="11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I41" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="2:9" x14ac:dyDescent="0.25">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="42" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B42" s="8" t="s">
         <v>33</v>
       </c>
@@ -1437,8 +1437,8 @@
         <v>34</v>
       </c>
       <c r="D42" s="9"/>
-      <c r="E42" s="9" t="s">
-        <v>17</v>
+      <c r="E42" s="9">
+        <v>0</v>
       </c>
       <c r="F42" s="9">
         <v>0</v>
@@ -1446,14 +1446,14 @@
       <c r="G42" s="9">
         <v>0</v>
       </c>
-      <c r="H42" s="9">
-        <v>0</v>
+      <c r="H42" s="9" t="s">
+        <v>17</v>
       </c>
       <c r="I42" s="9" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="43" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B43" s="10" t="s">
         <v>19</v>
       </c>
@@ -1470,14 +1470,14 @@
       <c r="G43" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="H43" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="I43" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="H43" s="11">
+        <v>0</v>
+      </c>
+      <c r="I43" s="11" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="44" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B44" s="8" t="s">
         <v>35</v>
       </c>
@@ -1501,7 +1501,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="45" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B45" s="10" t="s">
         <v>36</v>
       </c>
@@ -1525,7 +1525,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="46" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B46" s="8" t="s">
         <v>20</v>
       </c>
@@ -1542,21 +1542,21 @@
       <c r="G46" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="H46" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="I46" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="47" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="H46" s="9">
+        <v>0</v>
+      </c>
+      <c r="I46" s="9" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="47" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B47" s="10" t="s">
         <v>21</v>
       </c>
       <c r="C47" s="11"/>
       <c r="D47" s="11"/>
-      <c r="E47" s="11" t="s">
-        <v>17</v>
+      <c r="E47" s="11">
+        <v>0</v>
       </c>
       <c r="F47" s="11">
         <v>0</v>
@@ -1571,7 +1571,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B48" s="8" t="s">
         <v>37</v>
       </c>
@@ -1579,8 +1579,8 @@
         <v>11</v>
       </c>
       <c r="D48" s="9"/>
-      <c r="E48" s="9">
-        <v>94702</v>
+      <c r="E48" s="9" t="s">
+        <v>17</v>
       </c>
       <c r="F48" s="9" t="s">
         <v>17</v>
@@ -1595,7 +1595,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="49" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B49" s="10" t="s">
         <v>22</v>
       </c>
@@ -1619,7 +1619,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="50" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B50" s="8" t="s">
         <v>23</v>
       </c>
@@ -1643,7 +1643,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="51" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B51" s="10" t="s">
         <v>24</v>
       </c>
@@ -1667,7 +1667,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="52" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B52" s="8" t="s">
         <v>25</v>
       </c>
@@ -1684,14 +1684,14 @@
       <c r="G52" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="H52" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="I52" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="53" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="H52" s="9">
+        <v>0</v>
+      </c>
+      <c r="I52" s="9" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="53" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B53" s="10" t="s">
         <v>26</v>
       </c>
@@ -1700,22 +1700,22 @@
       </c>
       <c r="D53" s="11"/>
       <c r="E53" s="11">
-        <v>1038</v>
+        <v>6724</v>
       </c>
       <c r="F53" s="11">
-        <v>6724</v>
+        <v>0</v>
       </c>
       <c r="G53" s="11">
         <v>0</v>
       </c>
-      <c r="H53" s="11">
-        <v>0</v>
+      <c r="H53" s="11" t="s">
+        <v>17</v>
       </c>
       <c r="I53" s="11" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="54" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B54" s="8" t="s">
         <v>27</v>
       </c>
@@ -1732,14 +1732,14 @@
       <c r="G54" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="H54" s="9" t="s">
-        <v>17</v>
+      <c r="H54" s="9">
+        <v>10723</v>
       </c>
       <c r="I54" s="9">
-        <v>10723</v>
-      </c>
-    </row>
-    <row r="55" spans="2:9" x14ac:dyDescent="0.25">
+        <v>10057</v>
+      </c>
+    </row>
+    <row r="55" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B55" s="10" t="s">
         <v>29</v>
       </c>
@@ -1756,36 +1756,36 @@
       <c r="G55" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="H55" s="11" t="s">
-        <v>17</v>
+      <c r="H55" s="11">
+        <v>1075</v>
       </c>
       <c r="I55" s="11">
-        <v>1075</v>
-      </c>
-    </row>
-    <row r="56" spans="2:9" x14ac:dyDescent="0.25">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="56" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B56" s="12" t="s">
         <v>30</v>
       </c>
       <c r="C56" s="13"/>
       <c r="D56" s="13"/>
       <c r="E56" s="13">
-        <v>297312</v>
+        <v>136710</v>
       </c>
       <c r="F56" s="13">
-        <v>136710</v>
+        <v>120896</v>
       </c>
       <c r="G56" s="13">
-        <v>120896</v>
+        <v>105870</v>
       </c>
       <c r="H56" s="13">
-        <v>105870</v>
+        <v>205544</v>
       </c>
       <c r="I56" s="13">
-        <v>205544</v>
-      </c>
-    </row>
-    <row r="57" spans="2:9" x14ac:dyDescent="0.25">
+        <v>193446</v>
+      </c>
+    </row>
+    <row r="57" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B57" s="1"/>
       <c r="C57" s="1"/>
       <c r="D57" s="1"/>
@@ -1795,7 +1795,7 @@
       <c r="H57" s="1"/>
       <c r="I57" s="1"/>
     </row>
-    <row r="58" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="58" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B58" s="1"/>
       <c r="C58" s="1"/>
       <c r="D58" s="1"/>
@@ -1805,7 +1805,7 @@
       <c r="H58" s="1"/>
       <c r="I58" s="1"/>
     </row>
-    <row r="59" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="59" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B59" s="1"/>
       <c r="C59" s="1"/>
       <c r="D59" s="1"/>
@@ -1815,7 +1815,7 @@
       <c r="H59" s="1"/>
       <c r="I59" s="1"/>
     </row>
-    <row r="60" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="60" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B60" s="7" t="s">
         <v>38</v>
       </c>
@@ -1837,7 +1837,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="61" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="61" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B61" s="1"/>
       <c r="C61" s="1"/>
       <c r="D61" s="1"/>
@@ -1847,7 +1847,7 @@
       <c r="H61" s="1"/>
       <c r="I61" s="1"/>
     </row>
-    <row r="62" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="62" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B62" s="8" t="s">
         <v>10</v>
       </c>
@@ -1856,22 +1856,22 @@
       </c>
       <c r="D62" s="9"/>
       <c r="E62" s="9">
-        <v>294216</v>
+        <v>432673</v>
       </c>
       <c r="F62" s="9">
-        <v>432673</v>
+        <v>412801</v>
       </c>
       <c r="G62" s="9">
-        <v>412801</v>
+        <v>623893</v>
       </c>
       <c r="H62" s="9">
-        <v>623893</v>
+        <v>1219654</v>
       </c>
       <c r="I62" s="9">
-        <v>1219654</v>
-      </c>
-    </row>
-    <row r="63" spans="2:9" x14ac:dyDescent="0.25">
+        <v>2055017</v>
+      </c>
+    </row>
+    <row r="63" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B63" s="10" t="s">
         <v>12</v>
       </c>
@@ -1880,22 +1880,22 @@
       </c>
       <c r="D63" s="11"/>
       <c r="E63" s="11">
-        <v>54172</v>
+        <v>58555</v>
       </c>
       <c r="F63" s="11">
-        <v>58555</v>
+        <v>233787</v>
       </c>
       <c r="G63" s="11">
-        <v>233787</v>
+        <v>361409</v>
       </c>
       <c r="H63" s="11">
-        <v>361409</v>
+        <v>597576</v>
       </c>
       <c r="I63" s="11">
-        <v>597576</v>
-      </c>
-    </row>
-    <row r="64" spans="2:9" x14ac:dyDescent="0.25">
+        <v>1066143</v>
+      </c>
+    </row>
+    <row r="64" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B64" s="8" t="s">
         <v>13</v>
       </c>
@@ -1904,22 +1904,22 @@
       </c>
       <c r="D64" s="9"/>
       <c r="E64" s="9">
-        <v>1227609</v>
+        <v>92880</v>
       </c>
       <c r="F64" s="9">
-        <v>92880</v>
+        <v>993406</v>
       </c>
       <c r="G64" s="9">
-        <v>993406</v>
+        <v>198430</v>
       </c>
       <c r="H64" s="9">
-        <v>198430</v>
+        <v>3405</v>
       </c>
       <c r="I64" s="9">
-        <v>3405</v>
-      </c>
-    </row>
-    <row r="65" spans="2:9" x14ac:dyDescent="0.25">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="65" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B65" s="10" t="s">
         <v>14</v>
       </c>
@@ -1928,22 +1928,22 @@
       </c>
       <c r="D65" s="11"/>
       <c r="E65" s="11">
-        <v>30279</v>
+        <v>39756</v>
       </c>
       <c r="F65" s="11">
-        <v>39756</v>
+        <v>168357</v>
       </c>
       <c r="G65" s="11">
-        <v>168357</v>
+        <v>158328</v>
       </c>
       <c r="H65" s="11">
-        <v>158328</v>
+        <v>319617</v>
       </c>
       <c r="I65" s="11">
-        <v>319617</v>
-      </c>
-    </row>
-    <row r="66" spans="2:9" x14ac:dyDescent="0.25">
+        <v>580253</v>
+      </c>
+    </row>
+    <row r="66" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B66" s="8" t="s">
         <v>15</v>
       </c>
@@ -1952,22 +1952,22 @@
       </c>
       <c r="D66" s="9"/>
       <c r="E66" s="9">
-        <v>1771224</v>
+        <v>2178955</v>
       </c>
       <c r="F66" s="9">
-        <v>2178955</v>
+        <v>2595401</v>
       </c>
       <c r="G66" s="9">
-        <v>2595401</v>
+        <v>3721681</v>
       </c>
       <c r="H66" s="9">
-        <v>3721681</v>
+        <v>8423055</v>
       </c>
       <c r="I66" s="9">
-        <v>8423055</v>
-      </c>
-    </row>
-    <row r="67" spans="2:9" x14ac:dyDescent="0.25">
+        <v>10884027</v>
+      </c>
+    </row>
+    <row r="67" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B67" s="10" t="s">
         <v>32</v>
       </c>
@@ -1991,7 +1991,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="68" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="68" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B68" s="8" t="s">
         <v>16</v>
       </c>
@@ -2015,7 +2015,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="69" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="69" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B69" s="10" t="s">
         <v>18</v>
       </c>
@@ -2024,22 +2024,22 @@
       </c>
       <c r="D69" s="11"/>
       <c r="E69" s="11">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="F69" s="11">
-        <v>17</v>
+        <v>28</v>
       </c>
       <c r="G69" s="11">
-        <v>28</v>
+        <v>50</v>
       </c>
       <c r="H69" s="11">
-        <v>50</v>
+        <v>65</v>
       </c>
       <c r="I69" s="11">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="70" spans="2:9" x14ac:dyDescent="0.25">
+        <v>49217</v>
+      </c>
+    </row>
+    <row r="70" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B70" s="8" t="s">
         <v>33</v>
       </c>
@@ -2047,8 +2047,8 @@
         <v>39</v>
       </c>
       <c r="D70" s="9"/>
-      <c r="E70" s="9" t="s">
-        <v>17</v>
+      <c r="E70" s="9">
+        <v>0</v>
       </c>
       <c r="F70" s="9">
         <v>0</v>
@@ -2056,14 +2056,14 @@
       <c r="G70" s="9">
         <v>0</v>
       </c>
-      <c r="H70" s="9">
-        <v>0</v>
+      <c r="H70" s="9" t="s">
+        <v>17</v>
       </c>
       <c r="I70" s="9" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="71" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="71" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B71" s="10" t="s">
         <v>19</v>
       </c>
@@ -2080,14 +2080,14 @@
       <c r="G71" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="H71" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="I71" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="72" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="H71" s="11">
+        <v>0</v>
+      </c>
+      <c r="I71" s="11" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="72" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B72" s="8" t="s">
         <v>35</v>
       </c>
@@ -2111,7 +2111,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="73" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="73" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B73" s="10" t="s">
         <v>36</v>
       </c>
@@ -2135,7 +2135,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="74" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="74" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B74" s="8" t="s">
         <v>20</v>
       </c>
@@ -2152,14 +2152,14 @@
       <c r="G74" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="H74" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="I74" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="75" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="H74" s="9">
+        <v>0</v>
+      </c>
+      <c r="I74" s="9" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="75" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B75" s="10" t="s">
         <v>21</v>
       </c>
@@ -2167,8 +2167,8 @@
         <v>39</v>
       </c>
       <c r="D75" s="11"/>
-      <c r="E75" s="11" t="s">
-        <v>17</v>
+      <c r="E75" s="11">
+        <v>0</v>
       </c>
       <c r="F75" s="11">
         <v>0</v>
@@ -2183,7 +2183,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="76" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B76" s="8" t="s">
         <v>37</v>
       </c>
@@ -2191,8 +2191,8 @@
         <v>39</v>
       </c>
       <c r="D76" s="9"/>
-      <c r="E76" s="9">
-        <v>213675</v>
+      <c r="E76" s="9" t="s">
+        <v>17</v>
       </c>
       <c r="F76" s="9" t="s">
         <v>17</v>
@@ -2207,7 +2207,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="77" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="77" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B77" s="10" t="s">
         <v>22</v>
       </c>
@@ -2231,7 +2231,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="78" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="78" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B78" s="8" t="s">
         <v>23</v>
       </c>
@@ -2255,7 +2255,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="79" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="79" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B79" s="10" t="s">
         <v>24</v>
       </c>
@@ -2279,7 +2279,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="80" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="80" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B80" s="8" t="s">
         <v>25</v>
       </c>
@@ -2296,14 +2296,14 @@
       <c r="G80" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="H80" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="I80" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="81" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="H80" s="9">
+        <v>0</v>
+      </c>
+      <c r="I80" s="9" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="81" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B81" s="10" t="s">
         <v>26</v>
       </c>
@@ -2312,22 +2312,22 @@
       </c>
       <c r="D81" s="11"/>
       <c r="E81" s="11">
-        <v>21649</v>
+        <v>149486</v>
       </c>
       <c r="F81" s="11">
-        <v>149486</v>
+        <v>0</v>
       </c>
       <c r="G81" s="11">
         <v>0</v>
       </c>
-      <c r="H81" s="11">
-        <v>0</v>
+      <c r="H81" s="11" t="s">
+        <v>17</v>
       </c>
       <c r="I81" s="11" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="82" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="82" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B82" s="8" t="s">
         <v>27</v>
       </c>
@@ -2344,14 +2344,14 @@
       <c r="G82" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="H82" s="9" t="s">
-        <v>17</v>
+      <c r="H82" s="9">
+        <v>72459</v>
       </c>
       <c r="I82" s="9">
-        <v>72459</v>
-      </c>
-    </row>
-    <row r="83" spans="2:9" x14ac:dyDescent="0.25">
+        <v>80448</v>
+      </c>
+    </row>
+    <row r="83" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B83" s="10" t="s">
         <v>29</v>
       </c>
@@ -2368,36 +2368,36 @@
       <c r="G83" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="H83" s="11" t="s">
-        <v>17</v>
+      <c r="H83" s="11">
+        <v>20874</v>
       </c>
       <c r="I83" s="11">
-        <v>20874</v>
-      </c>
-    </row>
-    <row r="84" spans="2:9" x14ac:dyDescent="0.25">
+        <v>6257</v>
+      </c>
+    </row>
+    <row r="84" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B84" s="12" t="s">
         <v>30</v>
       </c>
       <c r="C84" s="13"/>
       <c r="D84" s="13"/>
       <c r="E84" s="13">
-        <v>3612839</v>
+        <v>2952322</v>
       </c>
       <c r="F84" s="13">
-        <v>2952322</v>
+        <v>4403780</v>
       </c>
       <c r="G84" s="13">
-        <v>4403780</v>
+        <v>5063791</v>
       </c>
       <c r="H84" s="13">
-        <v>5063791</v>
+        <v>10656705</v>
       </c>
       <c r="I84" s="13">
-        <v>10656705</v>
-      </c>
-    </row>
-    <row r="85" spans="2:9" x14ac:dyDescent="0.25">
+        <v>14721432</v>
+      </c>
+    </row>
+    <row r="85" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B85" s="1"/>
       <c r="C85" s="1"/>
       <c r="D85" s="1"/>
@@ -2407,7 +2407,7 @@
       <c r="H85" s="1"/>
       <c r="I85" s="1"/>
     </row>
-    <row r="86" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="86" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B86" s="1"/>
       <c r="C86" s="1"/>
       <c r="D86" s="1"/>
@@ -2417,7 +2417,7 @@
       <c r="H86" s="1"/>
       <c r="I86" s="1"/>
     </row>
-    <row r="87" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="87" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B87" s="1"/>
       <c r="C87" s="1"/>
       <c r="D87" s="1"/>
@@ -2427,7 +2427,7 @@
       <c r="H87" s="1"/>
       <c r="I87" s="1"/>
     </row>
-    <row r="88" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="88" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B88" s="7" t="s">
         <v>40</v>
       </c>
@@ -2449,7 +2449,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="89" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="89" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B89" s="1"/>
       <c r="C89" s="1"/>
       <c r="D89" s="1"/>
@@ -2459,7 +2459,7 @@
       <c r="H89" s="1"/>
       <c r="I89" s="1"/>
     </row>
-    <row r="90" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="90" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B90" s="8" t="s">
         <v>10</v>
       </c>
@@ -2468,22 +2468,22 @@
       </c>
       <c r="D90" s="9"/>
       <c r="E90" s="9">
-        <v>7478230</v>
+        <v>9825215</v>
       </c>
       <c r="F90" s="9">
-        <v>9825215</v>
+        <v>16178758</v>
       </c>
       <c r="G90" s="9">
-        <v>16178758</v>
+        <v>20802674</v>
       </c>
       <c r="H90" s="9">
-        <v>20802674</v>
+        <v>50303308</v>
       </c>
       <c r="I90" s="9">
-        <v>50303308</v>
-      </c>
-    </row>
-    <row r="91" spans="2:9" x14ac:dyDescent="0.25">
+        <v>84509479</v>
+      </c>
+    </row>
+    <row r="91" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B91" s="10" t="s">
         <v>12</v>
       </c>
@@ -2492,22 +2492,22 @@
       </c>
       <c r="D91" s="11"/>
       <c r="E91" s="11">
-        <v>3184528</v>
+        <v>5425778</v>
       </c>
       <c r="F91" s="11">
-        <v>5425778</v>
+        <v>21869691</v>
       </c>
       <c r="G91" s="11">
-        <v>21869691</v>
+        <v>27949037</v>
       </c>
       <c r="H91" s="11">
-        <v>27949037</v>
+        <v>34999180</v>
       </c>
       <c r="I91" s="11">
-        <v>34999180</v>
-      </c>
-    </row>
-    <row r="92" spans="2:9" x14ac:dyDescent="0.25">
+        <v>55699441</v>
+      </c>
+    </row>
+    <row r="92" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B92" s="8" t="s">
         <v>13</v>
       </c>
@@ -2516,22 +2516,22 @@
       </c>
       <c r="D92" s="9"/>
       <c r="E92" s="9">
-        <v>25717706</v>
+        <v>27601783</v>
       </c>
       <c r="F92" s="9">
-        <v>27601783</v>
+        <v>40499246</v>
       </c>
       <c r="G92" s="9">
-        <v>40499246</v>
+        <v>40495918</v>
       </c>
       <c r="H92" s="9">
-        <v>40495918</v>
+        <v>126111111</v>
       </c>
       <c r="I92" s="9">
-        <v>126111111</v>
-      </c>
-    </row>
-    <row r="93" spans="2:9" x14ac:dyDescent="0.25">
+        <v>70000000</v>
+      </c>
+    </row>
+    <row r="93" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B93" s="10" t="s">
         <v>14</v>
       </c>
@@ -2540,7 +2540,7 @@
       </c>
       <c r="D93" s="11"/>
       <c r="E93" s="11">
-        <v>1042953</v>
+        <v>0</v>
       </c>
       <c r="F93" s="11">
         <v>0</v>
@@ -2549,13 +2549,13 @@
         <v>0</v>
       </c>
       <c r="H93" s="11">
-        <v>0</v>
+        <v>3817964</v>
       </c>
       <c r="I93" s="11">
-        <v>3817964</v>
-      </c>
-    </row>
-    <row r="94" spans="2:9" x14ac:dyDescent="0.25">
+        <v>7366982</v>
+      </c>
+    </row>
+    <row r="94" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B94" s="8" t="s">
         <v>15</v>
       </c>
@@ -2564,22 +2564,22 @@
       </c>
       <c r="D94" s="9"/>
       <c r="E94" s="9">
-        <v>25875794</v>
+        <v>30351367</v>
       </c>
       <c r="F94" s="9">
-        <v>30351367</v>
+        <v>43140922</v>
       </c>
       <c r="G94" s="9">
-        <v>43140922</v>
+        <v>64114959</v>
       </c>
       <c r="H94" s="9">
-        <v>64114959</v>
+        <v>122633108</v>
       </c>
       <c r="I94" s="9">
-        <v>122633108</v>
-      </c>
-    </row>
-    <row r="95" spans="2:9" x14ac:dyDescent="0.25">
+        <v>179447463</v>
+      </c>
+    </row>
+    <row r="95" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B95" s="10" t="s">
         <v>32</v>
       </c>
@@ -2603,7 +2603,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="96" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="96" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B96" s="8" t="s">
         <v>16</v>
       </c>
@@ -2627,7 +2627,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="97" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="97" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B97" s="10" t="s">
         <v>18</v>
       </c>
@@ -2636,22 +2636,22 @@
       </c>
       <c r="D97" s="11"/>
       <c r="E97" s="11">
-        <v>15000000</v>
+        <v>32075472</v>
       </c>
       <c r="F97" s="11">
-        <v>32075472</v>
+        <v>28000000</v>
       </c>
       <c r="G97" s="11">
-        <v>28000000</v>
+        <v>50000000</v>
       </c>
       <c r="H97" s="11">
-        <v>50000000</v>
+        <v>0</v>
       </c>
       <c r="I97" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="98" spans="2:9" x14ac:dyDescent="0.25">
+        <v>213986957</v>
+      </c>
+    </row>
+    <row r="98" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B98" s="8" t="s">
         <v>33</v>
       </c>
@@ -2659,8 +2659,8 @@
         <v>42</v>
       </c>
       <c r="D98" s="9"/>
-      <c r="E98" s="9" t="s">
-        <v>17</v>
+      <c r="E98" s="9">
+        <v>0</v>
       </c>
       <c r="F98" s="9">
         <v>0</v>
@@ -2668,14 +2668,14 @@
       <c r="G98" s="9">
         <v>0</v>
       </c>
-      <c r="H98" s="9">
-        <v>0</v>
+      <c r="H98" s="9" t="s">
+        <v>17</v>
       </c>
       <c r="I98" s="9" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="99" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="99" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B99" s="10" t="s">
         <v>19</v>
       </c>
@@ -2692,14 +2692,14 @@
       <c r="G99" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="H99" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="I99" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="100" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="H99" s="11">
+        <v>0</v>
+      </c>
+      <c r="I99" s="11" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="100" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B100" s="8" t="s">
         <v>35</v>
       </c>
@@ -2723,7 +2723,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="101" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="101" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B101" s="10" t="s">
         <v>36</v>
       </c>
@@ -2747,7 +2747,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="102" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="102" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B102" s="8" t="s">
         <v>20</v>
       </c>
@@ -2764,14 +2764,14 @@
       <c r="G102" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="H102" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="I102" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="103" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="H102" s="9">
+        <v>0</v>
+      </c>
+      <c r="I102" s="9" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="103" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B103" s="10" t="s">
         <v>21</v>
       </c>
@@ -2779,8 +2779,8 @@
         <v>42</v>
       </c>
       <c r="D103" s="11"/>
-      <c r="E103" s="11" t="s">
-        <v>17</v>
+      <c r="E103" s="11">
+        <v>0</v>
       </c>
       <c r="F103" s="11">
         <v>0</v>
@@ -2788,14 +2788,14 @@
       <c r="G103" s="11">
         <v>0</v>
       </c>
-      <c r="H103" s="11">
-        <v>0</v>
-      </c>
-      <c r="I103" s="11" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="104" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="H103" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="I103" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B104" s="8" t="s">
         <v>37</v>
       </c>
@@ -2803,8 +2803,8 @@
         <v>41</v>
       </c>
       <c r="D104" s="9"/>
-      <c r="E104" s="9">
-        <v>2256288</v>
+      <c r="E104" s="9" t="s">
+        <v>17</v>
       </c>
       <c r="F104" s="9" t="s">
         <v>17</v>
@@ -2819,7 +2819,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="105" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="105" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B105" s="10" t="s">
         <v>22</v>
       </c>
@@ -2843,7 +2843,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="106" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="106" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B106" s="8" t="s">
         <v>23</v>
       </c>
@@ -2867,7 +2867,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="107" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="107" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B107" s="10" t="s">
         <v>24</v>
       </c>
@@ -2891,7 +2891,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="108" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="108" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B108" s="8" t="s">
         <v>25</v>
       </c>
@@ -2908,14 +2908,14 @@
       <c r="G108" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="H108" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="I108" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="109" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="H108" s="9">
+        <v>0</v>
+      </c>
+      <c r="I108" s="9" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="109" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B109" s="10" t="s">
         <v>26</v>
       </c>
@@ -2924,22 +2924,22 @@
       </c>
       <c r="D109" s="11"/>
       <c r="E109" s="11">
-        <v>20856455</v>
+        <v>22231707</v>
       </c>
       <c r="F109" s="11">
-        <v>22231707</v>
+        <v>0</v>
       </c>
       <c r="G109" s="11">
         <v>0</v>
       </c>
-      <c r="H109" s="11">
-        <v>0</v>
+      <c r="H109" s="11" t="s">
+        <v>17</v>
       </c>
       <c r="I109" s="11" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="110" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="110" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B110" s="8" t="s">
         <v>27</v>
       </c>
@@ -2956,14 +2956,14 @@
       <c r="G110" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="H110" s="9" t="s">
-        <v>17</v>
+      <c r="H110" s="9">
+        <v>6757344</v>
       </c>
       <c r="I110" s="9">
-        <v>6757344</v>
-      </c>
-    </row>
-    <row r="111" spans="2:9" x14ac:dyDescent="0.25">
+        <v>7999205</v>
+      </c>
+    </row>
+    <row r="111" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B111" s="10" t="s">
         <v>29</v>
       </c>
@@ -2980,14 +2980,14 @@
       <c r="G111" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="H111" s="11" t="s">
-        <v>17</v>
+      <c r="H111" s="11">
+        <v>19417674</v>
       </c>
       <c r="I111" s="11">
-        <v>19417674</v>
-      </c>
-    </row>
-    <row r="112" spans="2:9" x14ac:dyDescent="0.25">
+        <v>22109541</v>
+      </c>
+    </row>
+    <row r="112" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B112" s="1"/>
       <c r="C112" s="1"/>
       <c r="D112" s="1"/>
@@ -2997,7 +2997,7 @@
       <c r="H112" s="1"/>
       <c r="I112" s="1"/>
     </row>
-    <row r="113" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="113" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B113" s="1"/>
       <c r="C113" s="1"/>
       <c r="D113" s="1"/>
@@ -3007,7 +3007,7 @@
       <c r="H113" s="1"/>
       <c r="I113" s="1"/>
     </row>
-    <row r="114" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="114" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B114" s="1"/>
       <c r="C114" s="1"/>
       <c r="D114" s="1"/>
@@ -3017,7 +3017,7 @@
       <c r="H114" s="1"/>
       <c r="I114" s="1"/>
     </row>
-    <row r="115" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="115" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B115" s="7" t="s">
         <v>43</v>
       </c>
@@ -3039,7 +3039,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="116" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="116" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B116" s="1"/>
       <c r="C116" s="1"/>
       <c r="D116" s="1"/>
@@ -3049,7 +3049,7 @@
       <c r="H116" s="1"/>
       <c r="I116" s="1"/>
     </row>
-    <row r="117" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="117" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B117" s="8" t="s">
         <v>10</v>
       </c>
@@ -3057,23 +3057,23 @@
         <v>39</v>
       </c>
       <c r="D117" s="9"/>
-      <c r="E117" s="9" t="s">
-        <v>17</v>
+      <c r="E117" s="9">
+        <v>-265830</v>
       </c>
       <c r="F117" s="9">
-        <v>-265830</v>
+        <v>-261656</v>
       </c>
       <c r="G117" s="9">
-        <v>-261656</v>
+        <v>-460020</v>
       </c>
       <c r="H117" s="9">
-        <v>-460020</v>
+        <v>-711866</v>
       </c>
       <c r="I117" s="9">
-        <v>-711866</v>
-      </c>
-    </row>
-    <row r="118" spans="2:9" x14ac:dyDescent="0.25">
+        <v>-1106161</v>
+      </c>
+    </row>
+    <row r="118" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B118" s="10" t="s">
         <v>12</v>
       </c>
@@ -3081,23 +3081,23 @@
         <v>39</v>
       </c>
       <c r="D118" s="11"/>
-      <c r="E118" s="11" t="s">
-        <v>17</v>
+      <c r="E118" s="11">
+        <v>-46861</v>
       </c>
       <c r="F118" s="11">
-        <v>-46861</v>
+        <v>-57085</v>
       </c>
       <c r="G118" s="11">
-        <v>-57085</v>
+        <v>-109778</v>
       </c>
       <c r="H118" s="11">
-        <v>-109778</v>
+        <v>-286849</v>
       </c>
       <c r="I118" s="11">
-        <v>-286849</v>
-      </c>
-    </row>
-    <row r="119" spans="2:9" x14ac:dyDescent="0.25">
+        <v>-558079</v>
+      </c>
+    </row>
+    <row r="119" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B119" s="8" t="s">
         <v>13</v>
       </c>
@@ -3105,23 +3105,23 @@
         <v>39</v>
       </c>
       <c r="D119" s="9"/>
-      <c r="E119" s="9" t="s">
-        <v>17</v>
+      <c r="E119" s="9">
+        <v>-77502</v>
       </c>
       <c r="F119" s="9">
-        <v>-77502</v>
+        <v>-962930</v>
       </c>
       <c r="G119" s="9">
-        <v>-962930</v>
+        <v>-192312</v>
       </c>
       <c r="H119" s="9">
-        <v>-192312</v>
+        <v>-1060</v>
       </c>
       <c r="I119" s="9">
-        <v>-1060</v>
-      </c>
-    </row>
-    <row r="120" spans="2:9" x14ac:dyDescent="0.25">
+        <v>-21</v>
+      </c>
+    </row>
+    <row r="120" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B120" s="10" t="s">
         <v>14</v>
       </c>
@@ -3129,23 +3129,23 @@
         <v>39</v>
       </c>
       <c r="D120" s="11"/>
-      <c r="E120" s="11" t="s">
-        <v>17</v>
+      <c r="E120" s="11">
+        <v>-80679</v>
       </c>
       <c r="F120" s="11">
-        <v>-80679</v>
+        <v>-202320</v>
       </c>
       <c r="G120" s="11">
-        <v>-202320</v>
+        <v>-254410</v>
       </c>
       <c r="H120" s="11">
-        <v>-254410</v>
+        <v>-520074</v>
       </c>
       <c r="I120" s="11">
-        <v>-520074</v>
-      </c>
-    </row>
-    <row r="121" spans="2:9" x14ac:dyDescent="0.25">
+        <v>-665848</v>
+      </c>
+    </row>
+    <row r="121" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B121" s="8" t="s">
         <v>15</v>
       </c>
@@ -3153,23 +3153,23 @@
         <v>39</v>
       </c>
       <c r="D121" s="9"/>
-      <c r="E121" s="9" t="s">
-        <v>17</v>
+      <c r="E121" s="9">
+        <v>-1894708</v>
       </c>
       <c r="F121" s="9">
-        <v>-1894708</v>
+        <v>-2118422</v>
       </c>
       <c r="G121" s="9">
-        <v>-2118422</v>
+        <v>-3246323</v>
       </c>
       <c r="H121" s="9">
-        <v>-3246323</v>
+        <v>-7250884</v>
       </c>
       <c r="I121" s="9">
-        <v>-7250884</v>
-      </c>
-    </row>
-    <row r="122" spans="2:9" x14ac:dyDescent="0.25">
+        <v>-10276717</v>
+      </c>
+    </row>
+    <row r="122" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B122" s="10" t="s">
         <v>18</v>
       </c>
@@ -3177,23 +3177,23 @@
         <v>39</v>
       </c>
       <c r="D122" s="11"/>
-      <c r="E122" s="11" t="s">
-        <v>17</v>
+      <c r="E122" s="11">
+        <v>-9</v>
       </c>
       <c r="F122" s="11">
-        <v>-9</v>
+        <v>-11</v>
       </c>
       <c r="G122" s="11">
         <v>-11</v>
       </c>
       <c r="H122" s="11">
-        <v>-11</v>
+        <v>-8</v>
       </c>
       <c r="I122" s="11">
-        <v>-8</v>
-      </c>
-    </row>
-    <row r="123" spans="2:9" x14ac:dyDescent="0.25">
+        <v>-46710</v>
+      </c>
+    </row>
+    <row r="123" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B123" s="8" t="s">
         <v>33</v>
       </c>
@@ -3201,8 +3201,8 @@
         <v>39</v>
       </c>
       <c r="D123" s="9"/>
-      <c r="E123" s="9" t="s">
-        <v>17</v>
+      <c r="E123" s="9">
+        <v>0</v>
       </c>
       <c r="F123" s="9">
         <v>0</v>
@@ -3210,14 +3210,14 @@
       <c r="G123" s="9">
         <v>0</v>
       </c>
-      <c r="H123" s="9">
-        <v>0</v>
+      <c r="H123" s="9" t="s">
+        <v>17</v>
       </c>
       <c r="I123" s="9" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="124" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="124" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B124" s="10" t="s">
         <v>19</v>
       </c>
@@ -3234,14 +3234,14 @@
       <c r="G124" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="H124" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="I124" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="125" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="H124" s="11">
+        <v>0</v>
+      </c>
+      <c r="I124" s="11" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="125" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B125" s="8" t="s">
         <v>20</v>
       </c>
@@ -3258,14 +3258,14 @@
       <c r="G125" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="H125" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="I125" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="126" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="H125" s="9">
+        <v>0</v>
+      </c>
+      <c r="I125" s="9" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="126" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B126" s="10" t="s">
         <v>21</v>
       </c>
@@ -3273,8 +3273,8 @@
         <v>39</v>
       </c>
       <c r="D126" s="11"/>
-      <c r="E126" s="11" t="s">
-        <v>17</v>
+      <c r="E126" s="11">
+        <v>0</v>
       </c>
       <c r="F126" s="11">
         <v>0</v>
@@ -3289,7 +3289,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="127" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="127" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B127" s="8" t="s">
         <v>25</v>
       </c>
@@ -3306,14 +3306,14 @@
       <c r="G127" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="H127" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="I127" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="128" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="H127" s="9">
+        <v>0</v>
+      </c>
+      <c r="I127" s="9" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="128" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B128" s="10" t="s">
         <v>26</v>
       </c>
@@ -3321,23 +3321,23 @@
         <v>39</v>
       </c>
       <c r="D128" s="11"/>
-      <c r="E128" s="11" t="s">
-        <v>17</v>
+      <c r="E128" s="11">
+        <v>-128014</v>
       </c>
       <c r="F128" s="11">
-        <v>-128014</v>
+        <v>0</v>
       </c>
       <c r="G128" s="11">
         <v>0</v>
       </c>
-      <c r="H128" s="11">
-        <v>0</v>
+      <c r="H128" s="11" t="s">
+        <v>17</v>
       </c>
       <c r="I128" s="11" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="129" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="129" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B129" s="8" t="s">
         <v>27</v>
       </c>
@@ -3354,14 +3354,14 @@
       <c r="G129" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="H129" s="9" t="s">
-        <v>17</v>
+      <c r="H129" s="9">
+        <v>-311730</v>
       </c>
       <c r="I129" s="9">
-        <v>-311730</v>
-      </c>
-    </row>
-    <row r="130" spans="2:9" x14ac:dyDescent="0.25">
+        <v>-457485</v>
+      </c>
+    </row>
+    <row r="130" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B130" s="10" t="s">
         <v>29</v>
       </c>
@@ -3378,36 +3378,36 @@
       <c r="G130" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="H130" s="11" t="s">
-        <v>17</v>
+      <c r="H130" s="11">
+        <v>-119437</v>
       </c>
       <c r="I130" s="11">
-        <v>-119437</v>
-      </c>
-    </row>
-    <row r="131" spans="2:9" x14ac:dyDescent="0.25">
+        <v>-47950</v>
+      </c>
+    </row>
+    <row r="131" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B131" s="12" t="s">
         <v>30</v>
       </c>
       <c r="C131" s="13"/>
       <c r="D131" s="13"/>
       <c r="E131" s="13">
-        <v>0</v>
+        <v>-2493603</v>
       </c>
       <c r="F131" s="13">
-        <v>-2493603</v>
+        <v>-3602424</v>
       </c>
       <c r="G131" s="13">
-        <v>-3602424</v>
+        <v>-4262854</v>
       </c>
       <c r="H131" s="13">
-        <v>-4262854</v>
+        <v>-9201908</v>
       </c>
       <c r="I131" s="13">
-        <v>-9201908</v>
-      </c>
-    </row>
-    <row r="132" spans="2:9" x14ac:dyDescent="0.25">
+        <v>-13158971</v>
+      </c>
+    </row>
+    <row r="132" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B132" s="1"/>
       <c r="C132" s="1"/>
       <c r="D132" s="1"/>
@@ -3417,7 +3417,7 @@
       <c r="H132" s="1"/>
       <c r="I132" s="1"/>
     </row>
-    <row r="133" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="133" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B133" s="1"/>
       <c r="C133" s="1"/>
       <c r="D133" s="1"/>
@@ -3427,7 +3427,7 @@
       <c r="H133" s="1"/>
       <c r="I133" s="1"/>
     </row>
-    <row r="134" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="134" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B134" s="1"/>
       <c r="C134" s="1"/>
       <c r="D134" s="1"/>
@@ -3437,7 +3437,7 @@
       <c r="H134" s="1"/>
       <c r="I134" s="1"/>
     </row>
-    <row r="135" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="135" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B135" s="7" t="s">
         <v>44</v>
       </c>
@@ -3459,7 +3459,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="136" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="136" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B136" s="1"/>
       <c r="C136" s="1"/>
       <c r="D136" s="1"/>
@@ -3469,7 +3469,7 @@
       <c r="H136" s="1"/>
       <c r="I136" s="1"/>
     </row>
-    <row r="137" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="137" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B137" s="8" t="s">
         <v>10</v>
       </c>
@@ -3477,23 +3477,23 @@
         <v>39</v>
       </c>
       <c r="D137" s="9"/>
-      <c r="E137" s="9" t="s">
-        <v>17</v>
+      <c r="E137" s="9">
+        <v>166843</v>
       </c>
       <c r="F137" s="9">
-        <v>166843</v>
+        <v>151145</v>
       </c>
       <c r="G137" s="9">
-        <v>151145</v>
+        <v>163873</v>
       </c>
       <c r="H137" s="9">
-        <v>163873</v>
+        <v>507788</v>
       </c>
       <c r="I137" s="9">
-        <v>507788</v>
-      </c>
-    </row>
-    <row r="138" spans="2:9" x14ac:dyDescent="0.25">
+        <v>948856</v>
+      </c>
+    </row>
+    <row r="138" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B138" s="10" t="s">
         <v>12</v>
       </c>
@@ -3501,23 +3501,23 @@
         <v>39</v>
       </c>
       <c r="D138" s="11"/>
-      <c r="E138" s="11" t="s">
-        <v>17</v>
+      <c r="E138" s="11">
+        <v>11694</v>
       </c>
       <c r="F138" s="11">
-        <v>11694</v>
+        <v>176702</v>
       </c>
       <c r="G138" s="11">
-        <v>176702</v>
+        <v>251631</v>
       </c>
       <c r="H138" s="11">
-        <v>251631</v>
+        <v>310727</v>
       </c>
       <c r="I138" s="11">
-        <v>310727</v>
-      </c>
-    </row>
-    <row r="139" spans="2:9" x14ac:dyDescent="0.25">
+        <v>508064</v>
+      </c>
+    </row>
+    <row r="139" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B139" s="8" t="s">
         <v>13</v>
       </c>
@@ -3525,23 +3525,23 @@
         <v>39</v>
       </c>
       <c r="D139" s="9"/>
-      <c r="E139" s="9" t="s">
-        <v>17</v>
+      <c r="E139" s="9">
+        <v>15378</v>
       </c>
       <c r="F139" s="9">
-        <v>15378</v>
+        <v>30476</v>
       </c>
       <c r="G139" s="9">
-        <v>30476</v>
+        <v>6118</v>
       </c>
       <c r="H139" s="9">
-        <v>6118</v>
+        <v>2345</v>
       </c>
       <c r="I139" s="9">
-        <v>2345</v>
-      </c>
-    </row>
-    <row r="140" spans="2:9" x14ac:dyDescent="0.25">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="140" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B140" s="10" t="s">
         <v>14</v>
       </c>
@@ -3549,23 +3549,23 @@
         <v>39</v>
       </c>
       <c r="D140" s="11"/>
-      <c r="E140" s="11" t="s">
-        <v>17</v>
+      <c r="E140" s="11">
+        <v>-40923</v>
       </c>
       <c r="F140" s="11">
-        <v>-40923</v>
+        <v>-33963</v>
       </c>
       <c r="G140" s="11">
-        <v>-33963</v>
+        <v>-96082</v>
       </c>
       <c r="H140" s="11">
-        <v>-96082</v>
+        <v>-200457</v>
       </c>
       <c r="I140" s="11">
-        <v>-200457</v>
-      </c>
-    </row>
-    <row r="141" spans="2:9" x14ac:dyDescent="0.25">
+        <v>-85595</v>
+      </c>
+    </row>
+    <row r="141" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B141" s="8" t="s">
         <v>15</v>
       </c>
@@ -3573,23 +3573,23 @@
         <v>39</v>
       </c>
       <c r="D141" s="9"/>
-      <c r="E141" s="9" t="s">
-        <v>17</v>
+      <c r="E141" s="9">
+        <v>284247</v>
       </c>
       <c r="F141" s="9">
-        <v>284247</v>
+        <v>476979</v>
       </c>
       <c r="G141" s="9">
-        <v>476979</v>
+        <v>475358</v>
       </c>
       <c r="H141" s="9">
-        <v>475358</v>
+        <v>1172171</v>
       </c>
       <c r="I141" s="9">
-        <v>1172171</v>
-      </c>
-    </row>
-    <row r="142" spans="2:9" x14ac:dyDescent="0.25">
+        <v>607310</v>
+      </c>
+    </row>
+    <row r="142" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B142" s="10" t="s">
         <v>18</v>
       </c>
@@ -3597,23 +3597,23 @@
         <v>39</v>
       </c>
       <c r="D142" s="11"/>
-      <c r="E142" s="11" t="s">
-        <v>17</v>
+      <c r="E142" s="11">
+        <v>8</v>
       </c>
       <c r="F142" s="11">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="G142" s="11">
-        <v>17</v>
+        <v>39</v>
       </c>
       <c r="H142" s="11">
-        <v>39</v>
+        <v>57</v>
       </c>
       <c r="I142" s="11">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="143" spans="2:9" x14ac:dyDescent="0.25">
+        <v>2507</v>
+      </c>
+    </row>
+    <row r="143" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B143" s="8" t="s">
         <v>33</v>
       </c>
@@ -3624,20 +3624,20 @@
       <c r="E143" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="F143" s="9" t="s">
-        <v>17</v>
+      <c r="F143" s="9">
+        <v>0</v>
       </c>
       <c r="G143" s="9">
         <v>0</v>
       </c>
-      <c r="H143" s="9">
-        <v>0</v>
+      <c r="H143" s="9" t="s">
+        <v>17</v>
       </c>
       <c r="I143" s="9" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="144" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="144" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B144" s="10" t="s">
         <v>19</v>
       </c>
@@ -3654,14 +3654,14 @@
       <c r="G144" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="H144" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="I144" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="145" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="H144" s="11">
+        <v>0</v>
+      </c>
+      <c r="I144" s="11" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="145" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B145" s="8" t="s">
         <v>20</v>
       </c>
@@ -3678,14 +3678,14 @@
       <c r="G145" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="H145" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="I145" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="146" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="H145" s="9">
+        <v>0</v>
+      </c>
+      <c r="I145" s="9" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="146" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B146" s="10" t="s">
         <v>21</v>
       </c>
@@ -3696,8 +3696,8 @@
       <c r="E146" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="F146" s="11" t="s">
-        <v>17</v>
+      <c r="F146" s="11">
+        <v>0</v>
       </c>
       <c r="G146" s="11">
         <v>0</v>
@@ -3709,7 +3709,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="147" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="147" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B147" s="8" t="s">
         <v>25</v>
       </c>
@@ -3726,14 +3726,14 @@
       <c r="G147" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="H147" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="I147" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="148" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="H147" s="9">
+        <v>0</v>
+      </c>
+      <c r="I147" s="9" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="148" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B148" s="10" t="s">
         <v>26</v>
       </c>
@@ -3741,23 +3741,23 @@
         <v>39</v>
       </c>
       <c r="D148" s="11"/>
-      <c r="E148" s="11" t="s">
-        <v>17</v>
+      <c r="E148" s="11">
+        <v>21472</v>
       </c>
       <c r="F148" s="11">
-        <v>21472</v>
+        <v>0</v>
       </c>
       <c r="G148" s="11">
         <v>0</v>
       </c>
-      <c r="H148" s="11">
-        <v>0</v>
+      <c r="H148" s="11" t="s">
+        <v>17</v>
       </c>
       <c r="I148" s="11" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="149" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="149" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B149" s="8" t="s">
         <v>27</v>
       </c>
@@ -3774,14 +3774,14 @@
       <c r="G149" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="H149" s="9" t="s">
-        <v>17</v>
+      <c r="H149" s="9">
+        <v>-239271</v>
       </c>
       <c r="I149" s="9">
-        <v>-239271</v>
-      </c>
-    </row>
-    <row r="150" spans="2:9" x14ac:dyDescent="0.25">
+        <v>-377037</v>
+      </c>
+    </row>
+    <row r="150" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B150" s="10" t="s">
         <v>29</v>
       </c>
@@ -3798,33 +3798,33 @@
       <c r="G150" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="H150" s="11" t="s">
-        <v>17</v>
+      <c r="H150" s="11">
+        <v>-98563</v>
       </c>
       <c r="I150" s="11">
-        <v>-98563</v>
-      </c>
-    </row>
-    <row r="151" spans="2:9" x14ac:dyDescent="0.25">
+        <v>-41693</v>
+      </c>
+    </row>
+    <row r="151" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B151" s="12" t="s">
         <v>30</v>
       </c>
       <c r="C151" s="13"/>
       <c r="D151" s="13"/>
       <c r="E151" s="13">
-        <v>0</v>
+        <v>458719</v>
       </c>
       <c r="F151" s="13">
-        <v>458719</v>
+        <v>801356</v>
       </c>
       <c r="G151" s="13">
-        <v>801356</v>
+        <v>800937</v>
       </c>
       <c r="H151" s="13">
-        <v>800937</v>
+        <v>1454797</v>
       </c>
       <c r="I151" s="13">
-        <v>1454797</v>
+        <v>1562461</v>
       </c>
     </row>
   </sheetData>
